--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutenggao/Desktop/APM466/A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3137E7A8-EFAD-3641-A0FB-4EC5DAB948D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145020C-F910-8645-BBB1-1D4E5EEB25D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{08F13FF1-4C7C-6145-9544-25530D84B08A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="2" xr2:uid="{08F13FF1-4C7C-6145-9544-25530D84B08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="close_price" sheetId="2" r:id="rId2"/>
+    <sheet name="last_coupon_date" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
   <si>
     <t>ISSUER</t>
   </si>
@@ -595,13 +596,22 @@
   </si>
   <si>
     <t>CAN 1.5 Jun 1 2026</t>
+  </si>
+  <si>
+    <t>Last coupon date</t>
+  </si>
+  <si>
+    <t>Bond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,6 +686,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -708,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +784,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3561,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C31D6B3-9815-384D-BBD2-8236BA1DDEC2}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3922,4 +3947,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBBBE3-9400-9748-8F13-26A6E9BA1895}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="223" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="22">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="22">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="22">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="22">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="22">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="22">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="22">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="22">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="22">
+        <v>44531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutenggao/Desktop/APM466/A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145020C-F910-8645-BBB1-1D4E5EEB25D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B21468-2562-694F-96A8-E2D5DF6E0651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="2" xr2:uid="{08F13FF1-4C7C-6145-9544-25530D84B08A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{08F13FF1-4C7C-6145-9544-25530D84B08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="189">
   <si>
     <t>ISSUER</t>
   </si>
@@ -602,6 +602,12 @@
   </si>
   <si>
     <t>Bond</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>5+</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123B046B-D562-674E-BBDD-4F5A5CD965D7}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3951,10 +3957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBBBE3-9400-9748-8F13-26A6E9BA1895}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="223" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3962,7 +3968,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>186</v>
       </c>
@@ -3970,23 +3976,29 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B2" s="22">
         <v>44440</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="22">
         <v>44531</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>178</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>175</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>179</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>180</v>
       </c>
@@ -4018,23 +4030,29 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="22">
         <v>44440</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>182</v>
       </c>
       <c r="B9" s="22">
         <v>44531</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>183</v>
       </c>
@@ -4042,7 +4060,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>184</v>
       </c>
